--- a/output/OPEN/MOESCHETQ22001507/MOESCHETQ22001507.xlsx
+++ b/output/OPEN/MOESCHETQ22001507/MOESCHETQ22001507.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Closing Date</t>
   </si>
   <si>
-    <t>07 Apr 202201:00PM</t>
-  </si>
-  <si>
     <t>Site Briefing Date</t>
   </si>
   <si>
@@ -91,6 +88,12 @@
   </si>
   <si>
     <t>South View Pri School, 6 Choa Chu Kang Central, Singapore 689762</t>
+  </si>
+  <si>
+    <t>07 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -459,38 +462,44 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>67697176</v>
@@ -498,15 +507,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
